--- a/pub/Operations/BDIIServiceLevelAgreement/2012.xlsx
+++ b/pub/Operations/BDIIServiceLevelAgreement/2012.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="3100" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="1" r:id="rId1"/>
     <sheet name="Jan" sheetId="2" r:id="rId2"/>
     <sheet name="Feb" sheetId="3" r:id="rId3"/>
     <sheet name="Mar" sheetId="4" r:id="rId4"/>
+    <sheet name="Apr" sheetId="5" r:id="rId5"/>
+    <sheet name="May" sheetId="6" r:id="rId6"/>
+    <sheet name="Jun" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="68">
   <si>
     <t>ï»¿ResourceGroup/GridType</t>
   </si>
@@ -187,6 +190,45 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>GOC_VOMS</t>
+  </si>
+  <si>
+    <t>GOC Voms</t>
+  </si>
+  <si>
+    <t>VOMS_Monitoring</t>
+  </si>
+  <si>
+    <t>Image_Server</t>
+  </si>
+  <si>
+    <t>Apache Server</t>
+  </si>
+  <si>
+    <t>Image_server</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>OSG-ReSS</t>
+  </si>
+  <si>
+    <t>OSG-ReSS-PROD</t>
+  </si>
+  <si>
+    <t>ReSS Collector</t>
+  </si>
+  <si>
+    <t>2nd Quarter</t>
   </si>
 </sst>
 </file>
@@ -235,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,23 +289,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E34" sqref="E34:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -604,7 +677,7 @@
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -617,8 +690,17 @@
       <c r="D1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,13 +709,28 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="C2" s="1">
+        <f>Feb!G2</f>
         <v>0.9919</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="1">
+        <f>Mar!G2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Apr!G2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>May!G2</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Jun!G2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -642,13 +739,27 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="C3" s="1">
+        <f>Feb!G3</f>
         <v>0.99570000000000003</v>
       </c>
       <c r="D3" s="1">
+        <f>Mar!G3</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <f>Apr!G3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>May!G3</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Jun!G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -657,13 +768,27 @@
         <v>0.98609999999999998</v>
       </c>
       <c r="C4" s="1">
+        <f>Feb!G4</f>
         <v>0.99019999999999997</v>
       </c>
       <c r="D4" s="1">
+        <f>Mar!G4</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <f>Apr!G4</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F4" s="1">
+        <f>May!G4</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Jun!G4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -672,13 +797,27 @@
         <v>0.99809999999999999</v>
       </c>
       <c r="C5" s="1">
+        <f>Feb!G5</f>
         <v>0.98760000000000003</v>
       </c>
       <c r="D5" s="1">
+        <f>Mar!G5</f>
         <v>0.99739999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <f>Apr!G5</f>
+        <v>0.997</v>
+      </c>
+      <c r="F5" s="1">
+        <f>May!G5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Jun!G5</f>
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -687,13 +826,27 @@
         <v>0.99929999999999997</v>
       </c>
       <c r="C6" s="1">
+        <f>Feb!G6</f>
         <v>0.99829999999999997</v>
       </c>
       <c r="D6" s="1">
+        <f>Mar!G6</f>
         <v>0.99639999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <f>Apr!G6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f>May!G6</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Jun!G6</f>
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -702,13 +855,27 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="C7" s="1">
+        <f>Feb!G7</f>
         <v>0.99829999999999997</v>
       </c>
       <c r="D7" s="1">
+        <f>Mar!G7</f>
         <v>0.99639999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <f>Apr!G7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f>May!G7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Jun!G7</f>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -717,13 +884,27 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="C8" s="1">
+        <f>Feb!G8</f>
         <v>0.99980000000000002</v>
       </c>
       <c r="D8" s="1">
+        <f>Mar!G8</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <f>Apr!G8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f>May!G8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Jun!G8</f>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -732,13 +913,27 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="C9" s="1">
+        <f>Feb!G9</f>
         <v>0.99980000000000002</v>
       </c>
       <c r="D9" s="1">
+        <f>Mar!G9</f>
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <f>Apr!G9</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f>May!G9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Jun!G9</f>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -747,13 +942,27 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <f>Feb!G10</f>
         <v>0.99950000000000006</v>
       </c>
       <c r="D10" s="1">
+        <f>Mar!G10</f>
         <v>0.99780000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <f>Apr!G10</f>
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <f>May!G10</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Jun!G10</f>
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -762,13 +971,27 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
+        <f>Feb!G11</f>
         <v>0.99950000000000006</v>
       </c>
       <c r="D11" s="1">
+        <f>Mar!G11</f>
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <f>Apr!G11</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f>May!G11</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Jun!G11</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -777,13 +1000,27 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
+        <f>Feb!G12</f>
         <v>0.99950000000000006</v>
       </c>
       <c r="D12" s="1">
+        <f>Mar!G12</f>
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <f>Apr!G12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f>May!G12</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Jun!G12</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -792,13 +1029,27 @@
         <v>0.99860000000000004</v>
       </c>
       <c r="C13" s="1">
+        <f>Feb!G13</f>
         <v>0.99329999999999996</v>
       </c>
       <c r="D13" s="1">
+        <f>Mar!G13</f>
         <v>0.99780000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <f>Apr!G13</f>
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <f>May!G13</f>
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Jun!G13</f>
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -807,13 +1058,27 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
+        <f>Feb!G14</f>
         <v>0.99860000000000004</v>
       </c>
       <c r="D14" s="1">
+        <f>Mar!G14</f>
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <f>Apr!G14</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f>May!G14</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Jun!G14</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -822,13 +1087,27 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
+        <f>Feb!G15</f>
         <v>0.99950000000000006</v>
       </c>
       <c r="D15" s="1">
+        <f>Mar!G15</f>
         <v>0.99780000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <f>Apr!G15</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f>May!G15</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Jun!G15</f>
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -837,13 +1116,27 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
+        <f>Feb!G16</f>
         <v>0.999</v>
       </c>
       <c r="D16" s="1">
+        <f>Mar!G16</f>
         <v>0.99690000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <f>Apr!G16</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f>May!G16</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="G16" s="1">
+        <f>Jun!G16</f>
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -852,313 +1145,587 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
+        <f>Feb!G17</f>
         <v>0.99950000000000006</v>
       </c>
       <c r="D17" s="1">
+        <f>Mar!G17</f>
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <f>Apr!G17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f>May!G17</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <f>Jun!G17</f>
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <f>Jan!G18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0.99850000000000005</v>
+        <f>Feb!G18</f>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0.99819999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f>Mar!G18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f>Apr!G18</f>
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <f>May!G18</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <f>Jun!G18</f>
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <f>Jan!G19</f>
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.99950000000000006</v>
+        <f>Feb!G19</f>
+        <v>0.99850000000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>0.99770000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <f>Mar!G19</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <f>Apr!G19</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f>May!G19</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="G19" s="1">
+        <f>Jun!G19</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <f>Jan!G20</f>
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>0.99399999999999999</v>
+        <f>Feb!G20</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="D20" s="1">
-        <v>0.97729999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <f>Mar!G20</f>
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <f>Apr!G20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f>May!G20</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="G20" s="1">
+        <f>Jun!G20</f>
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <f>Jan!G21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.35</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Feb!G21</f>
+        <v>0.99399999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>0.99729999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <f>Mar!G21</f>
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="E21" s="1">
+        <f>Apr!G21</f>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F21" s="1">
+        <f>May!G21</f>
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="G21" s="1">
+        <f>Jun!G21</f>
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <f>Jan!G22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
+        <f>Feb!G22</f>
+        <v>0.35</v>
+      </c>
+      <c r="D22" s="1">
+        <f>Mar!G22</f>
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Apr!G22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <f>May!G22</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <f>Jun!G22</f>
         <v>0.99950000000000006</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.99550000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <f>Jan!G23</f>
         <v>0</v>
       </c>
       <c r="C23" s="1">
+        <f>Feb!G23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f>Mar!G23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Apr!G23</f>
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <f>May!G23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f>Jun!G23</f>
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1">
+        <f>Jan!G24</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Feb!G24</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D24" s="1">
+        <f>Mar!G24</f>
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="E24" s="1">
+        <f>Apr!G24</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <f>May!G24</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G24" s="1">
+        <f>Jun!G24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1">
+        <f>Jan!G25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>Feb!G25</f>
         <v>0.34560000000000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
+        <f>Mar!G25</f>
         <v>0.99960000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
+      <c r="E25" s="1">
+        <f>Apr!G25</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <f>May!G25</f>
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <f>Jun!G25</f>
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:B45" si="0">AVERAGE(B2:D2)</f>
         <v>0.97296666666666665</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="E30" s="1">
+        <f>AVERAGE(E2:G2)</f>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1">
-        <f t="shared" ref="B29:B49" si="0">AVERAGE(B3:D3)</f>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
         <v>0.99843333333333339</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:E53" si="1">AVERAGE(E3:G3)</f>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>0.99203333333333321</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99976666666666658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>0.99436666666666662</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99853333333333338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>0.99799999999999989</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>0.99793333333333323</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>0.9995666666666666</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>0.9995666666666666</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>0.99909999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9956666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>0.99923333333333331</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>0.99923333333333331</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>0.99656666666666671</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99856666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>0.99893333333333345</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9995666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>0.99909999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99926666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>0.99863333333333337</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="E44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99883333333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>0.99923333333333331</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="E45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99940000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96830000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
+      <c r="B47" s="1">
+        <f>AVERAGE(B19:D19)</f>
         <v>0.9988999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99946666666666661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
+      <c r="B48" s="1">
+        <f>AVERAGE(B20:D20)</f>
         <v>0.99906666666666677</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99943333333333328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
+      <c r="B49" s="1">
+        <f>AVERAGE(B21:D21)</f>
         <v>0.99043333333333328</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97243333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="E50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99953333333333327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98493333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52" si="2">AVERAGE(B24:D24)</f>
         <v>0.99833333333333341</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="E52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99986666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E53" s="1">
+        <f>AVERAGE(E25:G25)</f>
+        <v>0.99956666666666683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="E56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="B21 B23" emptyCellReference="1"/>
+    <ignoredError sqref="B22 B25" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1170,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1441,10 +2008,10 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1467,10 +2034,10 @@
       <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1493,10 +2060,10 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1545,10 +2112,10 @@
       <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1571,10 +2138,10 @@
       <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1597,10 +2164,10 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1623,10 +2190,10 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1635,25 +2202,25 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1667,18 +2234,18 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1687,24 +2254,24 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1713,10 +2280,25 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1724,25 +2306,25 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1750,10 +2332,77 @@
         <v>8</v>
       </c>
       <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
         <v>336</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>46</v>
+      </c>
+      <c r="D25">
+        <v>451</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2233,25 +2882,25 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1">
-        <v>0.99850000000000005</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0.99850000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2265,19 +2914,19 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.99850000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2285,25 +2934,25 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H20" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2311,25 +2960,25 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.35</v>
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2337,25 +2986,25 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.35</v>
       </c>
       <c r="H22" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2363,24 +3012,76 @@
         <v>8</v>
       </c>
       <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
         <v>336</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>451</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>0.34560000000000002</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H25" s="1">
         <v>0.34560000000000002</v>
       </c>
     </row>
@@ -2397,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2862,25 +3563,25 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1">
-        <v>0.99819999999999998</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0.99819999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2894,19 +3595,19 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="1">
-        <v>0.99770000000000003</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>0.99770000000000003</v>
+        <v>0.99819999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2914,25 +3615,25 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.99770000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2940,25 +3641,25 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1">
-        <v>0.99729999999999996</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="H21" s="1">
-        <v>0.99729999999999996</v>
+        <v>0.97729999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2966,25 +3667,25 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1">
-        <v>0.99550000000000005</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>0.99550000000000005</v>
+        <v>0.99729999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2992,24 +3693,76 @@
         <v>8</v>
       </c>
       <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
         <v>336</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>451</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>0.99960000000000004</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H25" s="1">
         <v>0.99960000000000004</v>
       </c>
     </row>
@@ -3022,4 +3775,2045 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>292</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>406</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>274</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>424</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>466</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>450</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.95530000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>451</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>292</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>274</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>424</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>466</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>450</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>451</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>292</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>274</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>424</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>466</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>310</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>450</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>451</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>